--- a/Validating_selection_scheme/Plate_map_overnight_cultures.xlsx
+++ b/Validating_selection_scheme/Plate_map_overnight_cultures.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/oliviakosterlitz/Dropbox/Pop3/Protocol/GitHub/Validating_selection_scheme/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1D47D04-544C-BA41-AF64-CCA1B988A16E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F977C1B3-B397-AE4F-876C-3381A14D1C76}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="500" windowWidth="35200" windowHeight="16940" xr2:uid="{C8E4A20E-1BC3-1C4C-B332-500A68E46850}"/>
   </bookViews>
@@ -126,7 +126,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -189,15 +189,6 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -249,7 +240,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -257,12 +248,6 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -281,7 +266,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -292,38 +276,44 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -644,246 +634,250 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE13B518-F504-C341-9466-68307EBC3A78}">
-  <dimension ref="B2:P12"/>
+  <dimension ref="B2:P13"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+      <selection activeCell="C12" sqref="B2:N12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="4" customWidth="1"/>
-    <col min="2" max="2" width="5" style="15" customWidth="1"/>
+    <col min="2" max="2" width="5" style="12" customWidth="1"/>
     <col min="3" max="4" width="6.83203125" style="1" customWidth="1"/>
     <col min="5" max="5" width="7" style="1" customWidth="1"/>
     <col min="6" max="14" width="6.83203125" style="1" customWidth="1"/>
     <col min="15" max="15" width="9.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="13"/>
-      <c r="C2" s="3">
+    <row r="2" spans="2:16" s="12" customFormat="1" ht="35" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B2" s="10"/>
+      <c r="C2" s="24">
         <v>1</v>
       </c>
-      <c r="D2" s="3">
+      <c r="D2" s="24">
         <v>2</v>
       </c>
-      <c r="E2" s="3">
+      <c r="E2" s="24">
         <v>3</v>
       </c>
-      <c r="F2" s="3">
+      <c r="F2" s="24">
         <v>4</v>
       </c>
-      <c r="G2" s="3">
+      <c r="G2" s="24">
         <v>5</v>
       </c>
-      <c r="H2" s="3">
+      <c r="H2" s="24">
         <v>6</v>
       </c>
-      <c r="I2" s="3">
+      <c r="I2" s="24">
         <v>7</v>
       </c>
-      <c r="J2" s="3">
+      <c r="J2" s="24">
         <v>8</v>
       </c>
-      <c r="K2" s="3">
+      <c r="K2" s="24">
         <v>9</v>
       </c>
-      <c r="L2" s="4">
+      <c r="L2" s="25">
         <v>10</v>
       </c>
-      <c r="M2" s="3">
+      <c r="M2" s="24">
         <v>11</v>
       </c>
-      <c r="N2" s="3">
+      <c r="N2" s="24">
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="2:16" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="14" t="s">
+    <row r="3" spans="2:16" ht="35" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B3" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="7"/>
-      <c r="D3" s="7"/>
-      <c r="E3" s="7"/>
-      <c r="F3" s="7"/>
-      <c r="G3" s="7"/>
-      <c r="H3" s="7"/>
-      <c r="I3" s="7"/>
-      <c r="J3" s="7"/>
-      <c r="K3" s="7"/>
-      <c r="L3" s="7"/>
-      <c r="M3" s="7"/>
-      <c r="N3" s="7"/>
-      <c r="O3" s="18"/>
-    </row>
-    <row r="4" spans="2:16" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="14" t="s">
+      <c r="C3" s="5"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="5"/>
+      <c r="G3" s="5"/>
+      <c r="H3" s="5"/>
+      <c r="I3" s="5"/>
+      <c r="J3" s="5"/>
+      <c r="K3" s="5"/>
+      <c r="L3" s="5"/>
+      <c r="M3" s="5"/>
+      <c r="N3" s="5"/>
+      <c r="O3" s="13"/>
+    </row>
+    <row r="4" spans="2:16" ht="35" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="7"/>
+      <c r="C4" s="5"/>
       <c r="D4" s="2"/>
-      <c r="E4" s="21"/>
+      <c r="E4" s="16"/>
       <c r="F4" s="2"/>
-      <c r="G4" s="5"/>
-      <c r="H4" s="6"/>
-      <c r="I4" s="9"/>
-      <c r="J4" s="5"/>
-      <c r="K4" s="9"/>
-      <c r="L4" s="6"/>
-      <c r="M4" s="5"/>
-      <c r="N4" s="7"/>
-      <c r="O4" s="18"/>
-    </row>
-    <row r="5" spans="2:16" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="14" t="s">
+      <c r="G4" s="3"/>
+      <c r="H4" s="4"/>
+      <c r="I4" s="7"/>
+      <c r="J4" s="3"/>
+      <c r="K4" s="7"/>
+      <c r="L4" s="4"/>
+      <c r="M4" s="3"/>
+      <c r="N4" s="5"/>
+      <c r="O4" s="13"/>
+    </row>
+    <row r="5" spans="2:16" ht="35" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="7"/>
-      <c r="D5" s="19"/>
-      <c r="E5" s="23" t="s">
+      <c r="C5" s="5"/>
+      <c r="D5" s="14"/>
+      <c r="E5" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="F5" s="20"/>
-      <c r="G5" s="7"/>
-      <c r="H5" s="7"/>
-      <c r="I5" s="7"/>
-      <c r="J5" s="7"/>
-      <c r="K5" s="7"/>
-      <c r="L5" s="7"/>
-      <c r="M5" s="7"/>
-      <c r="N5" s="7"/>
-      <c r="O5" s="18"/>
-    </row>
-    <row r="6" spans="2:16" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B6" s="14" t="s">
+      <c r="F5" s="15"/>
+      <c r="G5" s="5"/>
+      <c r="H5" s="5"/>
+      <c r="I5" s="5"/>
+      <c r="J5" s="5"/>
+      <c r="K5" s="5"/>
+      <c r="L5" s="5"/>
+      <c r="M5" s="5"/>
+      <c r="N5" s="5"/>
+      <c r="O5" s="13"/>
+    </row>
+    <row r="6" spans="2:16" ht="35" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B6" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="C6" s="10"/>
+      <c r="C6" s="8"/>
       <c r="D6" s="2"/>
-      <c r="E6" s="22"/>
+      <c r="E6" s="17"/>
       <c r="F6" s="2"/>
-      <c r="G6" s="10"/>
-      <c r="H6" s="10"/>
-      <c r="I6" s="10"/>
-      <c r="J6" s="10"/>
-      <c r="K6" s="10"/>
-      <c r="L6" s="10"/>
-      <c r="M6" s="10"/>
-      <c r="N6" s="10"/>
-      <c r="O6" s="18"/>
-    </row>
-    <row r="7" spans="2:16" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="14" t="s">
+      <c r="G6" s="8"/>
+      <c r="H6" s="8"/>
+      <c r="I6" s="8"/>
+      <c r="J6" s="8"/>
+      <c r="K6" s="8"/>
+      <c r="L6" s="8"/>
+      <c r="M6" s="8"/>
+      <c r="N6" s="8"/>
+      <c r="O6" s="13"/>
+    </row>
+    <row r="7" spans="2:16" ht="35" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="7"/>
+      <c r="C7" s="5"/>
       <c r="D7" s="2"/>
-      <c r="E7" s="21"/>
+      <c r="E7" s="16"/>
       <c r="F7" s="2"/>
-      <c r="G7" s="7"/>
-      <c r="H7" s="7"/>
-      <c r="I7" s="7"/>
-      <c r="J7" s="7"/>
-      <c r="K7" s="7"/>
-      <c r="L7" s="7"/>
-      <c r="M7" s="7"/>
-      <c r="N7" s="7"/>
-      <c r="O7" s="8"/>
-    </row>
-    <row r="8" spans="2:16" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="14" t="s">
+      <c r="G7" s="5"/>
+      <c r="H7" s="5"/>
+      <c r="I7" s="5"/>
+      <c r="J7" s="5"/>
+      <c r="K7" s="5"/>
+      <c r="L7" s="5"/>
+      <c r="M7" s="5"/>
+      <c r="N7" s="5"/>
+      <c r="O7" s="6"/>
+    </row>
+    <row r="8" spans="2:16" ht="35" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="C8" s="6"/>
-      <c r="D8" s="24"/>
-      <c r="E8" s="26" t="s">
+      <c r="C8" s="4"/>
+      <c r="D8" s="19"/>
+      <c r="E8" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="F8" s="25"/>
-      <c r="G8" s="5"/>
-      <c r="H8" s="6"/>
-      <c r="I8" s="9"/>
-      <c r="J8" s="5"/>
-      <c r="K8" s="9"/>
-      <c r="L8" s="6"/>
-      <c r="M8" s="5"/>
-      <c r="N8" s="7"/>
-      <c r="O8" s="8"/>
-    </row>
-    <row r="9" spans="2:16" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B9" s="14" t="s">
+      <c r="F8" s="20"/>
+      <c r="G8" s="3"/>
+      <c r="H8" s="4"/>
+      <c r="I8" s="7"/>
+      <c r="J8" s="3"/>
+      <c r="K8" s="7"/>
+      <c r="L8" s="4"/>
+      <c r="M8" s="3"/>
+      <c r="N8" s="5"/>
+      <c r="O8" s="6"/>
+    </row>
+    <row r="9" spans="2:16" ht="35" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B9" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="C9" s="7"/>
+      <c r="C9" s="5"/>
       <c r="D9" s="2"/>
-      <c r="E9" s="22"/>
+      <c r="E9" s="17"/>
       <c r="F9" s="2"/>
-      <c r="G9" s="7"/>
-      <c r="H9" s="7"/>
-      <c r="I9" s="7"/>
-      <c r="J9" s="7"/>
-      <c r="K9" s="7"/>
-      <c r="L9" s="7"/>
-      <c r="M9" s="7"/>
-      <c r="N9" s="7"/>
-      <c r="O9" s="8"/>
-      <c r="P9" s="12"/>
-    </row>
-    <row r="10" spans="2:16" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B10" s="14" t="s">
+      <c r="G9" s="5"/>
+      <c r="H9" s="5"/>
+      <c r="I9" s="5"/>
+      <c r="J9" s="5"/>
+      <c r="K9" s="5"/>
+      <c r="L9" s="5"/>
+      <c r="M9" s="5"/>
+      <c r="N9" s="5"/>
+      <c r="O9" s="6"/>
+      <c r="P9" s="9"/>
+    </row>
+    <row r="10" spans="2:16" ht="35" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B10" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="C10" s="10"/>
-      <c r="D10" s="10"/>
-      <c r="E10" s="10"/>
-      <c r="F10" s="10"/>
-      <c r="G10" s="10"/>
-      <c r="H10" s="10"/>
-      <c r="I10" s="10"/>
-      <c r="J10" s="10"/>
-      <c r="K10" s="10"/>
-      <c r="L10" s="10"/>
-      <c r="M10" s="10"/>
-      <c r="N10" s="10"/>
-      <c r="O10" s="8"/>
-      <c r="P10" s="12"/>
+      <c r="C10" s="8"/>
+      <c r="D10" s="8"/>
+      <c r="E10" s="8"/>
+      <c r="F10" s="8"/>
+      <c r="G10" s="8"/>
+      <c r="H10" s="8"/>
+      <c r="I10" s="8"/>
+      <c r="J10" s="8"/>
+      <c r="K10" s="8"/>
+      <c r="L10" s="8"/>
+      <c r="M10" s="8"/>
+      <c r="N10" s="8"/>
+      <c r="O10" s="6"/>
+      <c r="P10" s="9"/>
     </row>
     <row r="11" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="C11" s="17" t="s">
+      <c r="C11" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="D11" s="17"/>
-      <c r="E11" s="17"/>
-      <c r="F11" s="17"/>
-      <c r="G11" s="17"/>
-      <c r="H11" s="17"/>
-      <c r="I11" s="17"/>
-      <c r="J11" s="17"/>
-      <c r="K11" s="17"/>
-      <c r="L11" s="17"/>
-      <c r="M11" s="17"/>
-      <c r="N11" s="17"/>
-      <c r="O11" s="12"/>
-      <c r="P11" s="12"/>
+      <c r="D11" s="22"/>
+      <c r="E11" s="22"/>
+      <c r="F11" s="22"/>
+      <c r="G11" s="22"/>
+      <c r="H11" s="22"/>
+      <c r="I11" s="22"/>
+      <c r="J11" s="22"/>
+      <c r="K11" s="22"/>
+      <c r="L11" s="22"/>
+      <c r="M11" s="22"/>
+      <c r="N11" s="22"/>
+      <c r="O11" s="9"/>
+      <c r="P11" s="9"/>
     </row>
     <row r="12" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="C12" s="16" t="s">
+      <c r="C12" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="D12" s="16"/>
-      <c r="E12" s="16"/>
-      <c r="F12" s="16"/>
-      <c r="G12" s="16"/>
-      <c r="H12" s="16"/>
-      <c r="I12" s="16"/>
-      <c r="J12" s="16"/>
-      <c r="K12" s="16"/>
-      <c r="L12" s="16"/>
-      <c r="M12" s="16"/>
-      <c r="N12" s="16"/>
-      <c r="O12" s="11"/>
-      <c r="P12" s="11"/>
+      <c r="D12" s="23"/>
+      <c r="E12" s="23"/>
+      <c r="F12" s="23"/>
+      <c r="G12" s="23"/>
+      <c r="H12" s="23"/>
+      <c r="I12" s="23"/>
+      <c r="J12" s="23"/>
+      <c r="K12" s="23"/>
+      <c r="L12" s="23"/>
+      <c r="M12" s="23"/>
+      <c r="N12" s="23"/>
+      <c r="O12" s="9"/>
+      <c r="P12" s="9"/>
+    </row>
+    <row r="13" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="O13" s="9"/>
+      <c r="P13" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -911,5 +905,6 @@
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
--- a/Validating_selection_scheme/Plate_map_overnight_cultures.xlsx
+++ b/Validating_selection_scheme/Plate_map_overnight_cultures.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/oliviakosterlitz/Dropbox/Pop3/Protocol/GitHub/Validating_selection_scheme/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F977C1B3-B397-AE4F-876C-3381A14D1C76}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EDE0AFBF-E204-6541-A7D3-64B72725FE46}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="500" windowWidth="35200" windowHeight="16940" xr2:uid="{C8E4A20E-1BC3-1C4C-B332-500A68E46850}"/>
+    <workbookView xWindow="360" yWindow="500" windowWidth="35200" windowHeight="16940" xr2:uid="{C8E4A20E-1BC3-1C4C-B332-500A68E46850}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -69,7 +69,7 @@
     <t>Wells with growth medium</t>
   </si>
   <si>
-    <t>Wells with growth medium + 7.5 μg per ml</t>
+    <t>Wells with growth medium supplemented with Tetracycline (working concentration 7.5 μg/ml)</t>
   </si>
 </sst>
 </file>
@@ -126,7 +126,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -160,17 +160,6 @@
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -282,37 +271,37 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -636,8 +625,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE13B518-F504-C341-9466-68307EBC3A78}">
   <dimension ref="B2:P13"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="C12" sqref="B2:N12"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:N12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -651,46 +640,46 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:16" s="12" customFormat="1" ht="35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="10"/>
-      <c r="C2" s="24">
+      <c r="B2" s="24"/>
+      <c r="C2" s="10">
         <v>1</v>
       </c>
-      <c r="D2" s="24">
+      <c r="D2" s="10">
         <v>2</v>
       </c>
-      <c r="E2" s="24">
+      <c r="E2" s="10">
         <v>3</v>
       </c>
-      <c r="F2" s="24">
+      <c r="F2" s="10">
         <v>4</v>
       </c>
-      <c r="G2" s="24">
+      <c r="G2" s="10">
         <v>5</v>
       </c>
-      <c r="H2" s="24">
+      <c r="H2" s="10">
         <v>6</v>
       </c>
-      <c r="I2" s="24">
+      <c r="I2" s="10">
         <v>7</v>
       </c>
-      <c r="J2" s="24">
+      <c r="J2" s="10">
         <v>8</v>
       </c>
-      <c r="K2" s="24">
+      <c r="K2" s="10">
         <v>9</v>
       </c>
       <c r="L2" s="25">
         <v>10</v>
       </c>
-      <c r="M2" s="24">
+      <c r="M2" s="10">
         <v>11</v>
       </c>
-      <c r="N2" s="24">
+      <c r="N2" s="10">
         <v>12</v>
       </c>
     </row>
     <row r="3" spans="2:16" ht="35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="11" t="s">
+      <c r="B3" s="10" t="s">
         <v>0</v>
       </c>
       <c r="C3" s="5"/>

--- a/Validating_selection_scheme/Plate_map_overnight_cultures.xlsx
+++ b/Validating_selection_scheme/Plate_map_overnight_cultures.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/oliviakosterlitz/Dropbox/Pop3/Protocol/GitHub/Validating_selection_scheme/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EDE0AFBF-E204-6541-A7D3-64B72725FE46}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C019F0F-F88B-7A49-B4A2-F06B7438B7B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="360" yWindow="500" windowWidth="35200" windowHeight="16940" xr2:uid="{C8E4A20E-1BC3-1C4C-B332-500A68E46850}"/>
   </bookViews>
@@ -292,17 +292,17 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -625,7 +625,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE13B518-F504-C341-9466-68307EBC3A78}">
   <dimension ref="B2:P13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
       <selection activeCell="B2" sqref="B2:N12"/>
     </sheetView>
   </sheetViews>
@@ -640,7 +640,7 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:16" s="12" customFormat="1" ht="35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="24"/>
+      <c r="B2" s="22"/>
       <c r="C2" s="10">
         <v>1</v>
       </c>
@@ -668,7 +668,7 @@
       <c r="K2" s="10">
         <v>9</v>
       </c>
-      <c r="L2" s="25">
+      <c r="L2" s="23">
         <v>10</v>
       </c>
       <c r="M2" s="10">
@@ -829,38 +829,38 @@
       <c r="P10" s="9"/>
     </row>
     <row r="11" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="C11" s="22" t="s">
+      <c r="C11" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="D11" s="22"/>
-      <c r="E11" s="22"/>
-      <c r="F11" s="22"/>
-      <c r="G11" s="22"/>
-      <c r="H11" s="22"/>
-      <c r="I11" s="22"/>
-      <c r="J11" s="22"/>
-      <c r="K11" s="22"/>
-      <c r="L11" s="22"/>
-      <c r="M11" s="22"/>
-      <c r="N11" s="22"/>
+      <c r="D11" s="24"/>
+      <c r="E11" s="24"/>
+      <c r="F11" s="24"/>
+      <c r="G11" s="24"/>
+      <c r="H11" s="24"/>
+      <c r="I11" s="24"/>
+      <c r="J11" s="24"/>
+      <c r="K11" s="24"/>
+      <c r="L11" s="24"/>
+      <c r="M11" s="24"/>
+      <c r="N11" s="24"/>
       <c r="O11" s="9"/>
       <c r="P11" s="9"/>
     </row>
     <row r="12" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="C12" s="23" t="s">
+      <c r="C12" s="25" t="s">
         <v>10</v>
       </c>
-      <c r="D12" s="23"/>
-      <c r="E12" s="23"/>
-      <c r="F12" s="23"/>
-      <c r="G12" s="23"/>
-      <c r="H12" s="23"/>
-      <c r="I12" s="23"/>
-      <c r="J12" s="23"/>
-      <c r="K12" s="23"/>
-      <c r="L12" s="23"/>
-      <c r="M12" s="23"/>
-      <c r="N12" s="23"/>
+      <c r="D12" s="25"/>
+      <c r="E12" s="25"/>
+      <c r="F12" s="25"/>
+      <c r="G12" s="25"/>
+      <c r="H12" s="25"/>
+      <c r="I12" s="25"/>
+      <c r="J12" s="25"/>
+      <c r="K12" s="25"/>
+      <c r="L12" s="25"/>
+      <c r="M12" s="25"/>
+      <c r="N12" s="25"/>
       <c r="O12" s="9"/>
       <c r="P12" s="9"/>
     </row>
@@ -894,6 +894,6 @@
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+  <pageSetup orientation="landscape" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>